--- a/pregunta 7/pregunta 7.xlsx
+++ b/pregunta 7/pregunta 7.xlsx
@@ -1,23 +1,76 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="165" yWindow="180" windowWidth="14805" windowHeight="11880"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
     <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
+  <si>
+    <t>f(x)=x^2+x+1</t>
+  </si>
+  <si>
+    <t>funcion objetivo</t>
+  </si>
+  <si>
+    <t>fenotipos</t>
+  </si>
+  <si>
+    <t>Poblacion 0 (x)</t>
+  </si>
+  <si>
+    <t>aplicación inicial</t>
+  </si>
+  <si>
+    <t>Operador de selección</t>
+  </si>
+  <si>
+    <t>Poblacion</t>
+  </si>
+  <si>
+    <t>fenotipo</t>
+  </si>
+  <si>
+    <t>Funcion Objetivo</t>
+  </si>
+  <si>
+    <t>Cruce</t>
+  </si>
+  <si>
+    <t>Mutacion</t>
+  </si>
+  <si>
+    <t>Poblacion1</t>
+  </si>
+  <si>
+    <t>poblacion 1</t>
+  </si>
+  <si>
+    <t>Poblacion 2</t>
+  </si>
+  <si>
+    <t>poblacion 2</t>
+  </si>
+  <si>
+    <t>Poblacion 3</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -34,7 +87,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -42,23 +95,400 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -343,36 +773,1189 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K32" sqref="K32"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" customWidth="1"/>
+    <col min="4" max="4" width="10.140625" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" customWidth="1"/>
+    <col min="8" max="8" width="11" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="14"/>
+    </row>
+    <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>5</v>
+      </c>
+      <c r="B4" s="11" t="str">
+        <f>DEC2BIN(A4,8)</f>
+        <v>00000101</v>
+      </c>
+      <c r="C4" s="11">
+        <f>A4*A4+A4+1</f>
+        <v>31</v>
+      </c>
+      <c r="D4" s="16">
+        <v>75</v>
+      </c>
+      <c r="E4" s="18" t="str">
+        <f>DEC2BIN(D4,8)</f>
+        <v>01001011</v>
+      </c>
+      <c r="F4" s="22">
+        <f>D4*D4+D4+1</f>
+        <v>5701</v>
+      </c>
+      <c r="G4" s="25">
+        <v>1001001</v>
+      </c>
+      <c r="H4" s="29">
+        <v>1011001</v>
+      </c>
+      <c r="I4" s="10">
+        <f>BIN2DEC(H4)</f>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="15">
+        <v>56</v>
+      </c>
+      <c r="B5" s="15" t="str">
+        <f t="shared" ref="B5:B13" si="0">DEC2BIN(A5,8)</f>
+        <v>00111000</v>
+      </c>
+      <c r="C5" s="15">
+        <f t="shared" ref="C5:C13" si="1">A5*A5+A5+1</f>
+        <v>3193</v>
+      </c>
+      <c r="D5" s="16">
+        <v>73</v>
+      </c>
+      <c r="E5" s="19" t="str">
+        <f t="shared" ref="E5:G13" si="2">DEC2BIN(D5,8)</f>
+        <v>01001001</v>
+      </c>
+      <c r="F5" s="23">
+        <f t="shared" ref="F5:F13" si="3">D5*D5+D5+1</f>
+        <v>5403</v>
+      </c>
+      <c r="G5" s="26">
+        <v>1001011</v>
+      </c>
+      <c r="H5" s="29">
+        <v>1011011</v>
+      </c>
+      <c r="I5" s="10">
+        <f t="shared" ref="I5:I13" si="4">BIN2DEC(H5)</f>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="15">
+        <v>34</v>
+      </c>
+      <c r="B6" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>00100010</v>
+      </c>
+      <c r="C6" s="15">
+        <f t="shared" si="1"/>
+        <v>1191</v>
+      </c>
+      <c r="D6" s="16">
+        <v>66</v>
+      </c>
+      <c r="E6" s="18" t="str">
+        <f t="shared" si="2"/>
+        <v>01000010</v>
+      </c>
+      <c r="F6" s="22">
+        <f t="shared" si="3"/>
+        <v>4423</v>
+      </c>
+      <c r="G6" s="25">
+        <v>1001000</v>
+      </c>
+      <c r="H6" s="29">
+        <v>1011000</v>
+      </c>
+      <c r="I6" s="10">
+        <f t="shared" si="4"/>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="15">
+        <v>45</v>
+      </c>
+      <c r="B7" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>00101101</v>
+      </c>
+      <c r="C7" s="15">
+        <f t="shared" si="1"/>
+        <v>2071</v>
+      </c>
+      <c r="D7" s="16">
+        <v>56</v>
+      </c>
+      <c r="E7" s="19" t="str">
+        <f t="shared" si="2"/>
+        <v>00111000</v>
+      </c>
+      <c r="F7" s="23">
+        <f t="shared" si="3"/>
+        <v>3193</v>
+      </c>
+      <c r="G7" s="25">
+        <v>110010</v>
+      </c>
+      <c r="H7" s="29">
+        <v>1110010</v>
+      </c>
+      <c r="I7" s="10">
+        <f t="shared" si="4"/>
+        <v>114</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="15">
+        <v>12</v>
+      </c>
+      <c r="B8" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>00001100</v>
+      </c>
+      <c r="C8" s="15">
+        <f t="shared" si="1"/>
+        <v>157</v>
+      </c>
+      <c r="D8" s="16">
+        <v>45</v>
+      </c>
+      <c r="E8" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>00101101</v>
+      </c>
+      <c r="F8" s="22">
+        <f t="shared" si="3"/>
+        <v>2071</v>
+      </c>
+      <c r="G8" s="26">
+        <v>100011</v>
+      </c>
+      <c r="H8" s="29">
+        <v>11</v>
+      </c>
+      <c r="I8" s="10">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="15">
+        <v>35</v>
+      </c>
+      <c r="B9" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>00100011</v>
+      </c>
+      <c r="C9" s="15">
+        <f t="shared" si="1"/>
+        <v>1261</v>
+      </c>
+      <c r="D9" s="16">
+        <v>35</v>
+      </c>
+      <c r="E9" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>00100011</v>
+      </c>
+      <c r="F9" s="23">
+        <f t="shared" si="3"/>
+        <v>1261</v>
+      </c>
+      <c r="G9" s="26">
+        <v>101101</v>
+      </c>
+      <c r="H9" s="29">
+        <v>111101</v>
+      </c>
+      <c r="I9" s="10">
+        <f t="shared" si="4"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="15">
+        <v>66</v>
+      </c>
+      <c r="B10" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>01000010</v>
+      </c>
+      <c r="C10" s="15">
+        <f t="shared" si="1"/>
+        <v>4423</v>
+      </c>
+      <c r="D10" s="16">
+        <v>34</v>
+      </c>
+      <c r="E10" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>00100010</v>
+      </c>
+      <c r="F10" s="22">
+        <f t="shared" si="3"/>
+        <v>1191</v>
+      </c>
+      <c r="G10" s="25">
+        <v>101111</v>
+      </c>
+      <c r="H10" s="29">
+        <v>111111</v>
+      </c>
+      <c r="I10" s="10">
+        <f t="shared" si="4"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="15">
+        <v>75</v>
+      </c>
+      <c r="B11" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>01001011</v>
+      </c>
+      <c r="C11" s="15">
+        <f t="shared" si="1"/>
+        <v>5701</v>
+      </c>
+      <c r="D11" s="16">
+        <v>31</v>
+      </c>
+      <c r="E11" s="7" t="str">
+        <f t="shared" si="2"/>
+        <v>00011111</v>
+      </c>
+      <c r="F11" s="23">
+        <f t="shared" si="3"/>
+        <v>993</v>
+      </c>
+      <c r="G11" s="25">
+        <v>10010</v>
+      </c>
+      <c r="H11" s="29">
+        <v>10</v>
+      </c>
+      <c r="I11" s="10">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="15">
+        <v>31</v>
+      </c>
+      <c r="B12" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>00011111</v>
+      </c>
+      <c r="C12" s="15">
+        <f t="shared" si="1"/>
+        <v>993</v>
+      </c>
+      <c r="D12" s="16">
+        <v>12</v>
+      </c>
+      <c r="E12" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>00001100</v>
+      </c>
+      <c r="F12" s="22">
+        <f t="shared" si="3"/>
+        <v>157</v>
+      </c>
+      <c r="G12" s="26">
+        <v>101</v>
+      </c>
+      <c r="H12" s="29">
+        <v>10101</v>
+      </c>
+      <c r="I12" s="10">
+        <f t="shared" si="4"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="15">
+        <v>73</v>
+      </c>
+      <c r="B13" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>01001001</v>
+      </c>
+      <c r="C13" s="15">
+        <f t="shared" si="1"/>
+        <v>5403</v>
+      </c>
+      <c r="D13" s="17">
+        <v>5</v>
+      </c>
+      <c r="E13" s="4" t="str">
+        <f t="shared" si="2"/>
+        <v>00000101</v>
+      </c>
+      <c r="F13" s="29">
+        <f t="shared" si="3"/>
+        <v>31</v>
+      </c>
+      <c r="G13" s="26">
+        <v>1100</v>
+      </c>
+      <c r="H13" s="29">
+        <v>11100</v>
+      </c>
+      <c r="I13" s="11">
+        <f t="shared" si="4"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="H14" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="I14" s="28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
+        <v>89</v>
+      </c>
+      <c r="B15" s="5" t="str">
+        <f>DEC2BIN(A15,8)</f>
+        <v>01011001</v>
+      </c>
+      <c r="C15" s="5">
+        <f>B15*B15+B15+1</f>
+        <v>1022124033003</v>
+      </c>
+      <c r="D15" s="31">
+        <v>114</v>
+      </c>
+      <c r="E15" s="5" t="str">
+        <f>DEC2BIN(D15,8)</f>
+        <v>01110010</v>
+      </c>
+      <c r="F15" s="25">
+        <f>E15*E15+E15+1</f>
+        <v>1232123310111</v>
+      </c>
+      <c r="G15" s="5">
+        <v>1111011</v>
+      </c>
+      <c r="H15" s="5">
+        <v>1111001</v>
+      </c>
+      <c r="I15" s="6">
+        <f>BIN2DEC(H15)</f>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>91</v>
+      </c>
+      <c r="B16" s="21" t="str">
+        <f t="shared" ref="B16:B24" si="5">DEC2BIN(A16,8)</f>
+        <v>01011011</v>
+      </c>
+      <c r="C16" s="21">
+        <f t="shared" ref="C16:C24" si="6">B16*B16+B16+1</f>
+        <v>1022144253133</v>
+      </c>
+      <c r="D16" s="31">
+        <v>91</v>
+      </c>
+      <c r="E16" s="21" t="str">
+        <f t="shared" ref="E16:E24" si="7">DEC2BIN(D16,8)</f>
+        <v>01011011</v>
+      </c>
+      <c r="F16" s="13">
+        <f t="shared" ref="F16:F24" si="8">E16*E16+E16+1</f>
+        <v>1022144253133</v>
+      </c>
+      <c r="G16" s="9">
+        <v>1010010</v>
+      </c>
+      <c r="H16" s="9">
+        <v>1010000</v>
+      </c>
+      <c r="I16" s="17">
+        <f t="shared" ref="I16:I24" si="9">BIN2DEC(H16)</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
+        <v>88</v>
+      </c>
+      <c r="B17" s="21" t="str">
+        <f t="shared" si="5"/>
+        <v>01011000</v>
+      </c>
+      <c r="C17" s="21">
+        <f t="shared" si="6"/>
+        <v>1022122011001</v>
+      </c>
+      <c r="D17" s="31">
+        <v>89</v>
+      </c>
+      <c r="E17" s="21" t="str">
+        <f t="shared" si="7"/>
+        <v>01011001</v>
+      </c>
+      <c r="F17" s="12">
+        <f t="shared" si="8"/>
+        <v>1022124033003</v>
+      </c>
+      <c r="G17" s="9">
+        <v>1011000</v>
+      </c>
+      <c r="H17" s="9">
+        <v>1011010</v>
+      </c>
+      <c r="I17" s="17">
+        <f t="shared" si="9"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>114</v>
+      </c>
+      <c r="B18" s="21" t="str">
+        <f t="shared" si="5"/>
+        <v>01110010</v>
+      </c>
+      <c r="C18" s="21">
+        <f t="shared" si="6"/>
+        <v>1232123310111</v>
+      </c>
+      <c r="D18" s="31">
+        <v>88</v>
+      </c>
+      <c r="E18" s="21" t="str">
+        <f t="shared" si="7"/>
+        <v>01011000</v>
+      </c>
+      <c r="F18" s="13">
+        <f t="shared" si="8"/>
+        <v>1022122011001</v>
+      </c>
+      <c r="G18" s="9">
+        <v>1011001</v>
+      </c>
+      <c r="H18" s="9">
+        <v>1011011</v>
+      </c>
+      <c r="I18" s="17">
+        <f t="shared" si="9"/>
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
+        <v>3</v>
+      </c>
+      <c r="B19" s="21" t="str">
+        <f t="shared" si="5"/>
+        <v>00000011</v>
+      </c>
+      <c r="C19" s="21">
+        <f t="shared" si="6"/>
+        <v>133</v>
+      </c>
+      <c r="D19" s="31">
+        <v>63</v>
+      </c>
+      <c r="E19" s="21" t="str">
+        <f t="shared" si="7"/>
+        <v>00111111</v>
+      </c>
+      <c r="F19" s="12">
+        <f t="shared" si="8"/>
+        <v>12345765433</v>
+      </c>
+      <c r="G19" s="9">
+        <v>111101</v>
+      </c>
+      <c r="H19" s="9">
+        <v>111111</v>
+      </c>
+      <c r="I19" s="17">
+        <f t="shared" si="9"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>61</v>
+      </c>
+      <c r="B20" s="21" t="str">
+        <f t="shared" si="5"/>
+        <v>00111101</v>
+      </c>
+      <c r="C20" s="21">
+        <f t="shared" si="6"/>
+        <v>12343543303</v>
+      </c>
+      <c r="D20" s="31">
+        <v>61</v>
+      </c>
+      <c r="E20" s="21" t="str">
+        <f t="shared" si="7"/>
+        <v>00111101</v>
+      </c>
+      <c r="F20" s="13">
+        <f t="shared" si="8"/>
+        <v>12343543303</v>
+      </c>
+      <c r="G20" s="9">
+        <v>111111</v>
+      </c>
+      <c r="H20" s="9">
+        <v>111101</v>
+      </c>
+      <c r="I20" s="17">
+        <f t="shared" si="9"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
+        <v>63</v>
+      </c>
+      <c r="B21" s="21" t="str">
+        <f t="shared" si="5"/>
+        <v>00111111</v>
+      </c>
+      <c r="C21" s="21">
+        <f t="shared" si="6"/>
+        <v>12345765433</v>
+      </c>
+      <c r="D21" s="31">
+        <v>28</v>
+      </c>
+      <c r="E21" s="21" t="str">
+        <f t="shared" si="7"/>
+        <v>00011100</v>
+      </c>
+      <c r="F21" s="12">
+        <f t="shared" si="8"/>
+        <v>123221101</v>
+      </c>
+      <c r="G21" s="9">
+        <v>10101</v>
+      </c>
+      <c r="H21" s="9">
+        <v>10111</v>
+      </c>
+      <c r="I21" s="17">
+        <f t="shared" si="9"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>2</v>
+      </c>
+      <c r="B22" s="21" t="str">
+        <f t="shared" si="5"/>
+        <v>00000010</v>
+      </c>
+      <c r="C22" s="21">
+        <f t="shared" si="6"/>
+        <v>111</v>
+      </c>
+      <c r="D22" s="31">
+        <v>21</v>
+      </c>
+      <c r="E22" s="21" t="str">
+        <f t="shared" si="7"/>
+        <v>00010101</v>
+      </c>
+      <c r="F22" s="13">
+        <f t="shared" si="8"/>
+        <v>102040303</v>
+      </c>
+      <c r="G22" s="9">
+        <v>11100</v>
+      </c>
+      <c r="H22" s="9">
+        <v>11110</v>
+      </c>
+      <c r="I22" s="17">
+        <f t="shared" si="9"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
+        <v>21</v>
+      </c>
+      <c r="B23" s="21" t="str">
+        <f t="shared" si="5"/>
+        <v>00010101</v>
+      </c>
+      <c r="C23" s="21">
+        <f t="shared" si="6"/>
+        <v>102040303</v>
+      </c>
+      <c r="D23" s="31">
+        <v>3</v>
+      </c>
+      <c r="E23" s="21" t="str">
+        <f t="shared" si="7"/>
+        <v>00000011</v>
+      </c>
+      <c r="F23" s="12">
+        <f t="shared" si="8"/>
+        <v>133</v>
+      </c>
+      <c r="G23" s="9">
+        <v>10</v>
+      </c>
+      <c r="H23" s="9">
+        <v>0</v>
+      </c>
+      <c r="I23" s="17">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="7">
+        <v>28</v>
+      </c>
+      <c r="B24" s="21" t="str">
+        <f t="shared" si="5"/>
+        <v>00011100</v>
+      </c>
+      <c r="C24" s="21">
+        <f t="shared" si="6"/>
+        <v>123221101</v>
+      </c>
+      <c r="D24" s="32">
+        <v>2</v>
+      </c>
+      <c r="E24" s="21" t="str">
+        <f t="shared" si="7"/>
+        <v>00000010</v>
+      </c>
+      <c r="F24" s="13">
+        <f t="shared" si="8"/>
+        <v>111</v>
+      </c>
+      <c r="G24" s="8">
+        <v>11</v>
+      </c>
+      <c r="H24" s="8">
+        <v>1</v>
+      </c>
+      <c r="I24" s="17">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="D25" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="H25" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="I25" s="14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="18">
+        <v>121</v>
+      </c>
+      <c r="B26" s="21" t="str">
+        <f>DEC2BIN(A26,8)</f>
+        <v>01111001</v>
+      </c>
+      <c r="C26" s="21">
+        <f>A26*A26+A26+1</f>
+        <v>14763</v>
+      </c>
+      <c r="D26" s="18">
+        <v>121</v>
+      </c>
+      <c r="E26" s="21" t="str">
+        <f>DEC2BIN(D26,8)</f>
+        <v>01111001</v>
+      </c>
+      <c r="F26" s="12">
+        <f>D26*D26+D26+1</f>
+        <v>14763</v>
+      </c>
+      <c r="G26" s="21">
+        <v>1111011</v>
+      </c>
+      <c r="H26" s="21">
+        <v>1111111</v>
+      </c>
+      <c r="I26" s="17">
+        <f>BIN2DEC(H26)</f>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
+        <v>80</v>
+      </c>
+      <c r="B27" s="21" t="str">
+        <f t="shared" ref="B27:B35" si="10">DEC2BIN(A27,8)</f>
+        <v>01010000</v>
+      </c>
+      <c r="C27" s="21">
+        <f t="shared" ref="C27:C35" si="11">A27*A27+A27+1</f>
+        <v>6481</v>
+      </c>
+      <c r="D27" s="4">
+        <v>91</v>
+      </c>
+      <c r="E27" s="21" t="str">
+        <f t="shared" ref="E27:E35" si="12">DEC2BIN(D27,8)</f>
+        <v>01011011</v>
+      </c>
+      <c r="F27" s="33">
+        <f t="shared" ref="F27:F35" si="13">D27*D27+D27+1</f>
+        <v>8373</v>
+      </c>
+      <c r="G27" s="9">
+        <v>1011001</v>
+      </c>
+      <c r="H27" s="9">
+        <v>1011101</v>
+      </c>
+      <c r="I27" s="17">
+        <f t="shared" ref="I27:I35" si="14">BIN2DEC(H27)</f>
+        <v>93</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
+        <v>90</v>
+      </c>
+      <c r="B28" s="21" t="str">
+        <f t="shared" si="10"/>
+        <v>01011010</v>
+      </c>
+      <c r="C28" s="21">
+        <f t="shared" si="11"/>
+        <v>8191</v>
+      </c>
+      <c r="D28" s="4">
+        <v>90</v>
+      </c>
+      <c r="E28" s="21" t="str">
+        <f t="shared" si="12"/>
+        <v>01011010</v>
+      </c>
+      <c r="F28" s="12">
+        <f t="shared" si="13"/>
+        <v>8191</v>
+      </c>
+      <c r="G28" s="9">
+        <v>1010000</v>
+      </c>
+      <c r="H28" s="9">
+        <v>1010100</v>
+      </c>
+      <c r="I28" s="17">
+        <f t="shared" si="14"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="4">
+        <v>91</v>
+      </c>
+      <c r="B29" s="21" t="str">
+        <f t="shared" si="10"/>
+        <v>01011011</v>
+      </c>
+      <c r="C29" s="21">
+        <f t="shared" si="11"/>
+        <v>8373</v>
+      </c>
+      <c r="D29" s="4">
+        <v>80</v>
+      </c>
+      <c r="E29" s="21" t="str">
+        <f t="shared" si="12"/>
+        <v>01010000</v>
+      </c>
+      <c r="F29" s="33">
+        <f t="shared" si="13"/>
+        <v>6481</v>
+      </c>
+      <c r="G29" s="9">
+        <v>1011010</v>
+      </c>
+      <c r="H29" s="9">
+        <v>1011110</v>
+      </c>
+      <c r="I29" s="17">
+        <f t="shared" si="14"/>
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <v>63</v>
+      </c>
+      <c r="B30" s="21" t="str">
+        <f t="shared" si="10"/>
+        <v>00111111</v>
+      </c>
+      <c r="C30" s="21">
+        <f t="shared" si="11"/>
+        <v>4033</v>
+      </c>
+      <c r="D30" s="4">
+        <v>63</v>
+      </c>
+      <c r="E30" s="21" t="str">
+        <f t="shared" si="12"/>
+        <v>00111111</v>
+      </c>
+      <c r="F30" s="12">
+        <f t="shared" si="13"/>
+        <v>4033</v>
+      </c>
+      <c r="G30" s="9">
+        <v>111101</v>
+      </c>
+      <c r="H30" s="9">
+        <v>111001</v>
+      </c>
+      <c r="I30" s="17">
+        <f t="shared" si="14"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="4">
+        <v>61</v>
+      </c>
+      <c r="B31" s="21" t="str">
+        <f t="shared" si="10"/>
+        <v>00111101</v>
+      </c>
+      <c r="C31" s="21">
+        <f t="shared" si="11"/>
+        <v>3783</v>
+      </c>
+      <c r="D31" s="4">
+        <v>61</v>
+      </c>
+      <c r="E31" s="21" t="str">
+        <f t="shared" si="12"/>
+        <v>00111101</v>
+      </c>
+      <c r="F31" s="33">
+        <f t="shared" si="13"/>
+        <v>3783</v>
+      </c>
+      <c r="G31" s="9">
+        <v>111111</v>
+      </c>
+      <c r="H31" s="9">
+        <v>111011</v>
+      </c>
+      <c r="I31" s="17">
+        <f t="shared" si="14"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
+        <v>23</v>
+      </c>
+      <c r="B32" s="21" t="str">
+        <f t="shared" si="10"/>
+        <v>00010111</v>
+      </c>
+      <c r="C32" s="21">
+        <f t="shared" si="11"/>
+        <v>553</v>
+      </c>
+      <c r="D32" s="4">
+        <v>30</v>
+      </c>
+      <c r="E32" s="21" t="str">
+        <f t="shared" si="12"/>
+        <v>00011110</v>
+      </c>
+      <c r="F32" s="12">
+        <f t="shared" si="13"/>
+        <v>931</v>
+      </c>
+      <c r="G32" s="37">
+        <v>10111</v>
+      </c>
+      <c r="H32" s="37">
+        <v>10011</v>
+      </c>
+      <c r="I32" s="17">
+        <f t="shared" si="14"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="4">
+        <v>30</v>
+      </c>
+      <c r="B33" s="21" t="str">
+        <f t="shared" si="10"/>
+        <v>00011110</v>
+      </c>
+      <c r="C33" s="21">
+        <f t="shared" si="11"/>
+        <v>931</v>
+      </c>
+      <c r="D33" s="4">
+        <v>23</v>
+      </c>
+      <c r="E33" s="21" t="str">
+        <f t="shared" si="12"/>
+        <v>00010111</v>
+      </c>
+      <c r="F33" s="33">
+        <f t="shared" si="13"/>
+        <v>553</v>
+      </c>
+      <c r="G33" s="37">
+        <v>11110</v>
+      </c>
+      <c r="H33" s="37">
+        <v>11010</v>
+      </c>
+      <c r="I33" s="17">
+        <f t="shared" si="14"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <v>0</v>
+      </c>
+      <c r="B34" s="21" t="str">
+        <f t="shared" si="10"/>
+        <v>00000000</v>
+      </c>
+      <c r="C34" s="21">
+        <f t="shared" si="11"/>
+        <v>1</v>
+      </c>
+      <c r="D34" s="4">
+        <v>1</v>
+      </c>
+      <c r="E34" s="21" t="str">
+        <f t="shared" si="12"/>
+        <v>00000001</v>
+      </c>
+      <c r="F34" s="12">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="G34" s="38">
+        <v>0</v>
+      </c>
+      <c r="H34" s="38">
+        <v>100</v>
+      </c>
+      <c r="I34" s="17">
+        <f t="shared" si="14"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="7">
+        <v>1</v>
+      </c>
+      <c r="B35" s="21" t="str">
+        <f t="shared" si="10"/>
+        <v>00000001</v>
+      </c>
+      <c r="C35" s="21">
+        <f t="shared" si="11"/>
+        <v>3</v>
+      </c>
+      <c r="D35" s="7">
+        <v>0</v>
+      </c>
+      <c r="E35" s="21" t="str">
+        <f t="shared" si="12"/>
+        <v>00000000</v>
+      </c>
+      <c r="F35" s="33">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="G35" s="8">
+        <v>1</v>
+      </c>
+      <c r="H35" s="8">
+        <v>101</v>
+      </c>
+      <c r="I35" s="17">
+        <f t="shared" si="14"/>
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="D27:D35">
+    <sortCondition descending="1" ref="D26"/>
+  </sortState>
+  <mergeCells count="2">
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:F2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
